--- a/Excel Data/PostRestrictRemoval_Legacy.xlsx
+++ b/Excel Data/PostRestrictRemoval_Legacy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>transactionId</t>
   </si>
@@ -27,10 +27,19 @@
     <t>POSTING.RESTRICT:1</t>
   </si>
   <si>
-    <t>REASON</t>
-  </si>
-  <si>
-    <t>Testing</t>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>Account Blocked by FIA</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -348,20 +357,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -371,16 +380,28 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1007891257</v>
+        <v>1008784483</v>
       </c>
       <c r="B2">
         <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>20230907</v>
       </c>
     </row>
   </sheetData>
